--- a/recaptchalogin.xlsx
+++ b/recaptchalogin.xlsx
@@ -14,14 +14,33 @@
     <sheet name="Backup_24-06-05_16-50-46" r:id="rId11" sheetId="12"/>
     <sheet name="Backup_24-06-05_16-53-16" r:id="rId13" sheetId="14"/>
     <sheet name="Backup_24-06-05_17-00-40" r:id="rId14" sheetId="16"/>
-    <sheet name="Test Results" r:id="rId12" sheetId="17"/>
     <sheet name="Backup_24-06-05_17-01-56" r:id="rId15" sheetId="18"/>
+    <sheet name="Backup_24-06-07_11-30-15" r:id="rId16" sheetId="20"/>
+    <sheet name="Backup_24-06-07_11-31-53" r:id="rId18" sheetId="22"/>
+    <sheet name="Backup_24-06-07_11-34-23" r:id="rId19" sheetId="24"/>
+    <sheet name="Backup_24-06-07_11-36-52" r:id="rId20" sheetId="26"/>
+    <sheet name="Backup_24-06-07_11-38-54" r:id="rId21" sheetId="28"/>
+    <sheet name="Backup_24-06-07_11-40-10" r:id="rId22" sheetId="30"/>
+    <sheet name="Backup_24-06-07_11-41-32" r:id="rId24" sheetId="32"/>
+    <sheet name="Backup_24-06-07_11-48-46" r:id="rId25" sheetId="34"/>
+    <sheet name="Backup_24-06-07_11-50-36" r:id="rId26" sheetId="36"/>
+    <sheet name="Backup_24-06-07_11-54-39" r:id="rId27" sheetId="38"/>
+    <sheet name="Backup_24-06-07_11-57-47" r:id="rId28" sheetId="40"/>
+    <sheet name="Backup_24-06-07_11-59-28" r:id="rId29" sheetId="42"/>
+    <sheet name="Backup_24-06-07_12-00-14" r:id="rId31" sheetId="44"/>
+    <sheet name="Backup_24-06-09_14-16-45" r:id="rId32" sheetId="46"/>
+    <sheet name="Backup_24-06-09_14-23-28" r:id="rId33" sheetId="48"/>
+    <sheet name="Backup_24-06-09_14-27-50" r:id="rId34" sheetId="50"/>
+    <sheet name="Backup_24-06-10_10-18-49" r:id="rId35" sheetId="52"/>
+    <sheet name="Backup_24-06-10_10-19-31" r:id="rId36" sheetId="54"/>
+    <sheet name="Test Results" r:id="rId30" sheetId="55"/>
+    <sheet name="Backup_24-06-10_10-36-55" r:id="rId37" sheetId="56"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="11">
   <si>
     <t>Sequence</t>
   </si>
@@ -431,7 +450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -439,8 +458,1482 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>22538.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>22641.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>11232.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>10701.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>11261.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>1114.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>93.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>11084.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>1083.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>11902.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>51.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>1125.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>1155.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>12381.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>1056.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>12128.0</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>11780.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>913.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>14912.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>42998.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>983.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>34000.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.80859375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>4640.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.80859375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>3326.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
     <col min="1" max="1" width="9.73046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.58203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.80859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.19921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="10.734375" customWidth="true" bestFit="true"/>
@@ -474,44 +1967,27 @@
         <v>6</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>22538.0</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+        <v>4597.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="9.73046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.58203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.80859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.19921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="10.734375" customWidth="true" bestFit="true"/>
@@ -545,35 +2021,18 @@
         <v>6</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>22538.0</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>4597.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -616,7 +2075,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>22641.0</v>
+        <v>15341.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>7</v>
@@ -644,50 +2103,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>1056.0</v>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>25729.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>7</v>
@@ -710,165 +2169,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>12128.0</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>15341.0</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.73046875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="37.58203125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.19921875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.734375"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>25729.0</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
